--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -196,7 +196,7 @@
     <t xml:space="preserve">session_YoungResearcher2.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Young Researcher1</t>
+    <t xml:space="preserve">Young Researcher2</t>
   </si>
   <si>
     <t xml:space="preserve">13a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">session_YoungResearcher3.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Young Researcher2</t>
+    <t xml:space="preserve">Young Researcher3</t>
   </si>
   <si>
     <t xml:space="preserve">14a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
@@ -452,19 +452,19 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="45.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="45.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="16.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="16.76"/>
   </cols>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -196,7 +196,7 @@
     <t xml:space="preserve">session_YoungResearcher2.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Young Researcher2</t>
+    <t xml:space="preserve">Young2 Researcher2</t>
   </si>
   <si>
     <t xml:space="preserve">13a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">session_YoungResearcher3.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Young Researcher3</t>
+    <t xml:space="preserve">Young3 Researcher3</t>
   </si>
   <si>
     <t xml:space="preserve">14a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
@@ -453,12 +453,12 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.76"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -196,7 +196,7 @@
     <t xml:space="preserve">session_YoungResearcher2.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Young2 Researcher2</t>
+    <t xml:space="preserve">Young Researcher#2</t>
   </si>
   <si>
     <t xml:space="preserve">13a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">session_YoungResearcher3.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Young3 Researcher3</t>
+    <t xml:space="preserve">Young Researcher#3</t>
   </si>
   <si>
     <t xml:space="preserve">14a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
@@ -453,7 +453,7 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -46,67 +46,73 @@
     <t xml:space="preserve">session_Daniel.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel Basset</t>
+    <t xml:space="preserve">Dani Bassett</t>
   </si>
   <si>
     <t xml:space="preserve">assets/img/speakers/placeholder.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">University of Pennsylvania &amp; Santa Fe Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://complexsystemsupenn.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Bassett is the J. Peter Skirkanich Professor at the University of Pennsylvania, with appointments in the Departments of Bioengineering, Electrical &amp; Systems Engineering, Physics &amp; Astronomy, Neurology, and Psychiatry. They are also an external professor of the Santa Fe Institute. Bassett is most well-known for blending neural and systems engineering to identify fundamental mechanisms of cognition and disease in human brain networks. They received a B.S. in physics from Penn State University and a Ph.D. in physics from the University of Cambridge, UK as a Churchill Scholar, and as an NIH Health Sciences Scholar. Following a postdoctoral position at UC Santa Barbara, Bassett was a Junior Research Fellow at the Sage Center for the Study of the Mind. They have received multiple prestigious awards, including American Psychological Association's ‘Rising Star’ (2012), Alfred P Sloan Research Fellow (2014), MacArthur Fellow Genius Grant (2014), Early Academic Achievement Award from the IEEE Engineering in Medicine and Biology Society (2015), Office of Naval Research Young Investigator (2015), National Science Foundation CAREER (2016), Popular Science Brilliant 10 (2016), Lagrange Prize in Complex Systems Science (2017), Erdos-Renyi Prize in Network Science (2018), OHBM Young Investigator Award (2020), AIMBE College of Fellows (2020), American Physical Society Fellow (2021), and has been named one of Web of Science's most Highly Cited Researchers for 3 years running. Bassett is the author of more than 300 peer-reviewed publications, which have garnered over 33,000 citations, as well as numerous book chapters and teaching materials. Bassett’s work has been supported by the National Science Foundation, the National Institutes of Health, the Army Research Office, the Army Research Laboratory, the Office of Naval Research, the Department of Defense, the Alfred P Sloan Foundation, the John D and Catherine T MacArthur Foundation, the Paul Allen Foundation, the ISI Foundation, and the Center for Curiosity. Bassett has an academic trade book coming out this year with MIT Press, co-authored with philosopher and twin Perry Zurn, and titled Curious Minds: The Power of Connection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coming soon…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_Alexandre.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Pouget</t>
+  </si>
+  <si>
     <t xml:space="preserve">to be specified</t>
   </si>
   <si>
-    <t xml:space="preserve">1a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_Alexandre.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandre Pouget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
     <t xml:space="preserve">session_Valentina.html</t>
   </si>
   <si>
     <t xml:space="preserve">Valentina Emiliani</t>
   </si>
   <si>
-    <t xml:space="preserve">3a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
     <t xml:space="preserve">session_Kenneth.html</t>
   </si>
   <si>
     <t xml:space="preserve">Kenneth Harris</t>
   </si>
   <si>
-    <t xml:space="preserve">4a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">assets/img/speakers/Kenneth_Harris.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://profiles.ucl.ac.uk/31489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth studied mathematics at Cambridge University, did a PhD in robotics at UCL, then moved to Rutgers University in the United States for postdoctoral work in neuroscience. Before returning to UCL in 2012, he was Associate Professor of Neuroscience at Rutgers, and Professor of Neurotechnology at Imperial College London. He is currently Professor of Quantitative Neuroscience in the UCL Institute of Neurology, and together with Matteo Carandini directs the Cortexlab.</t>
   </si>
   <si>
     <t xml:space="preserve">session_Pascale.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Pascale Quilinchini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">Pascale P Quilichini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/speakers/Pascale_Quilichini.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut de Neurosciences des Systemes (INS), University of Aix-Marseille, CNRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am the "Dynamics of Neuronal Networks and Memory” group leader. We currently investigate the interactions between the temporal lobe (hippocampus and parahippocampal cortices), the thalamus (Nucleus Reuniens) and prefrontal cortex in the context of memory consolidation in physiological and pathological conditions. Our goal is to map the inner dynamics, both at the individual neuronal and functional connectivity levels, among these networks in order to decipher the mechanisms supporting the transfer of information for its long-term storage and how these processes are altered in pathology.</t>
   </si>
   <si>
     <t xml:space="preserve">session_Maurizio.html</t>
@@ -115,10 +121,13 @@
     <t xml:space="preserve">Maurizio Corbetta</t>
   </si>
   <si>
-    <t xml:space="preserve">6a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">assets/img/speakers/Maurizio_Corbetta.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Padua (Italy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t xml:space="preserve">session_Anne.html</t>
@@ -127,10 +136,16 @@
     <t xml:space="preserve">Anne Urai</t>
   </si>
   <si>
-    <t xml:space="preserve">7a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">assets/img/speakers/Anne_Urai.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leiden University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://anneurai.net/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne Urai studied cognitive neuroscience and philosophy at University College Utrecht, Xiamen University in China, University College London and École Normale Supérieure, Paris. During her doctoral research in the lab of Tobias Donner at the Universitätsklinikum Hamburg-Eppendorf and University of Amsterdam, she investigated how our previous choices bias the way we interpret later information, and how this process is affected by the confidence in our decisions. She joined Cold Spring Harbor Laboratory in New York as a postdoctoral fellow, investigating the neurophysiology of decision-making using high-density neural recordings in the mouse brain. During this time she was a core member of the International Brain Laboratory collaboration, working as part of a global team of systems and computational neuroscientists. Her research in general focuses on the neural basis of decision-making across mammalian species, the interaction between learning and perception, and the neural basis of cognitive aging. She is currently an NWO Veni fellow, and an active member of the Young Academy Leiden.</t>
   </si>
   <si>
     <t xml:space="preserve">session_Athena.html</t>
@@ -139,22 +154,25 @@
     <t xml:space="preserve">Athena Akrami</t>
   </si>
   <si>
-    <t xml:space="preserve">8a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
     <t xml:space="preserve">session_Florent.html</t>
   </si>
   <si>
     <t xml:space="preserve">Florent Meyniel</t>
   </si>
   <si>
-    <t xml:space="preserve">9a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">assets/img/speakers/Florent_Meyniel.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEA, CNRS, Université Paris-Saclay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://florentmeyniel.weebly.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I combine several scales and approaches in order to understand how those three processes operate in the brain:
+1) Computational level: the goal is to provide abstract, formal accounts of brain computations. I rely on Bayesian (and more generally probabilistic) inference to this end.
+2) Macro- and meso- scales: the goal is to understand the coordination of brain-scale networks that supporting those computations (macro-level), and how the inferred variables and their uncertainty are encoded by large populations of neurons (meso-scale). I currently use fMRI and MEG to this end.
+3) Molecules: I am interested in the role of neuromodulators in those computations, which actually bridge gaps between single neurons (of which they modulate the activity and plasticity) and large-scale networks (in which they are released simultaneously). I use fMRI, physiological measures (e.g. pupil size) and pharmacological interventions to address those questions</t>
   </si>
   <si>
     <t xml:space="preserve">session_Duygu.html</t>
@@ -163,10 +181,17 @@
     <t xml:space="preserve">Duygu Kuzum</t>
   </si>
   <si>
-    <t xml:space="preserve">10a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">assets/img/speakers/Duygu_Kuzum.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of California San Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://neuroelectronics.ucsd.edu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duygu Kuzum received her Ph.D in Electrical Engineering from Stanford University in 2010. She is currently an Associate Professor in Electrical and Computer Engineering Department at University of California, San Diego. Her research focuses on development of nanoelectronic synaptic devices for energy-efficient neuro-inspired computing. Her group applies innovations in nanoelectronics to develop new technologies, which will help to better understand circuit-level computation in the brain. She is the author or coauthor of over 50 journal and conference papers. She was a recipient of a number of awards, including Texas Instruments Fellowship and Intel Foundation Fellowship, Penn Neuroscience Pilot Innovative Research Award (2014), Innovators under 35 (TR35) by MIT Technology Review (2014), ONR Young Investigator Award (2016), IEEE Nanotechnology Council Young Investigator Award (2017), NSF Career Award (2018), NIH NIBIB Trailblazer Award (2018), and NIH New Innovator Award (2020).
+</t>
   </si>
   <si>
     <t xml:space="preserve">session_Joe.html</t>
@@ -175,10 +200,19 @@
     <t xml:space="preserve">Joe Paton</t>
   </si>
   <si>
-    <t xml:space="preserve">11a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">assets/img/speakers/Joe_Paton.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Champalimaud Foundation – Lisbon, Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://patonlab.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Paton was born in Princeton, New Jersey, and grew up in New Jersey, New York and Connecticut. He received his undergraduate degree in biology from Tufts University in 2000. While studying, he worked in research positions at Tufts University and Harvard Medical School. From 2000 to 2002, he worked as a research technician at Stanford University and Columbia University. In 2008, he received his Ph.D. with distinction from Columbia University, and shortly thereafter joined the Champalimaud Neuroscience Programme, where he was a fellow from 2008 to 2012. He is currently a principal investigator at the Champalimaud Neuroscience Programme, and his laboratory focuses on the neural mechanisms of learning, decision making, action selection and timing, and is particularly centered on the role that the basal ganglia play in these processes. Experimental approaches employed in his laboratory include behavioral, electrophysiological, molecular, imaging, and computational techniques in rodent animal model organisms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph (Joe) Paton received his undergraduate degree in biology from Tufts University in 2000. In 2008, he received his Ph.D. with distinction from Columbia University in Neurobiology and Behavior, and shortly thereafter joined the Champalimaud Neuroscience Programme, where he was a fellow from 2008 to 2012. He is currently a Principal Investigator and Director of the Champalimaud Neuroscience Programme (CNP) at the Champalimaud Foundation (CF) in Lisbon, Portugal. He is an alumnus of the Simons Foundation on the Global Brain, a Howard Hughes Medical Institute International Research Scholar, and a current holder of a consolidator grant from the European Research Council. His laboratory focuses on the neural mechanisms and computational principles of learning, decision-making, action selection and timing. In the course of trying to understand how the brain combines these functions to produce intelligent behavior, he has increasingly moved into areas that overlap with modern AI research. During his mandate as CNP Director, Paton has also spearheaded the development of a new Digital Therapeutics center at CF, as well as representing CF as a member of the recently announced Centre for Responsible AI.</t>
   </si>
   <si>
     <t xml:space="preserve">session_YoungResearcher1.html</t>
@@ -187,10 +221,13 @@
     <t xml:space="preserve">Andrea Luppi</t>
   </si>
   <si>
-    <t xml:space="preserve">12a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">assets/img/speakers/Andrea_Luppi.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Oxford and University of Cambridge (UK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t xml:space="preserve">session_YoungResearcher2.html</t>
@@ -199,10 +236,7 @@
     <t xml:space="preserve">Young Researcher#2</t>
   </si>
   <si>
-    <t xml:space="preserve">13a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">Post-doctoral researcher in computational and network neuroscience at the University of Oxford and St John's College, Cambridge. Through the lens of complex systems, I investigate how the interactions of brain function and structure enable information processing, exploring the intersection of neuroscience and AI. Background in philosophy, cognitive science and neuroscience; expertise in data analysis, network modelling and neuroimaging research methods; passionate about making higher education more accessible, with experience of undergraduate and graduate teaching.</t>
   </si>
   <si>
     <t xml:space="preserve">session_YoungResearcher3.html</t>
@@ -211,46 +245,33 @@
     <t xml:space="preserve">Young Researcher#3</t>
   </si>
   <si>
-    <t xml:space="preserve">14a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
     <t xml:space="preserve">session_Aya.html</t>
   </si>
   <si>
     <t xml:space="preserve">Aya Takeoka</t>
   </si>
   <si>
-    <t xml:space="preserve">15a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
     <t xml:space="preserve">session_Rita.html</t>
   </si>
   <si>
     <t xml:space="preserve">Rita Goldstein</t>
   </si>
   <si>
-    <t xml:space="preserve">16a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
     <t xml:space="preserve">session_Daniele.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniele Schon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17a Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17b Autem ipsum nam porro corporis rerum. Quis eos dolorem eos itaque inventore commodi labore quia quia. Exercitationem repudiandae officiis neque suscipit non officia eaque itaque enim. Voluptatem officia accusantium nesciunt est omnis tempora consectetur dignissimos. Sequi nulla at esse enim cum deserunt eius.</t>
+    <t xml:space="preserve">Daniele Schön</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/speakers/Daniele_Schon.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ins-amu.fr/danieleschon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniele Schön studied cello at the Conservatory of Padua (Italy) and then perfected his skills first with Teodora Campagnaro, a student of Antonio Janigro and then with Menahem Meir, a student of Alexandre Alexanian and Pablo Casals. He has played in several ensembles, baroque, classical and jazz with a preference for chamber music and string quartet in particular.
+Before leaving Italy under the Berlusconian regime, he also studied neuropsychology at the University of Padua. He prepared and obtained a doctorate in neuroscience between Marseille, Trieste and Ljubljana.
+In 2004, he became a CNRS researcher. He is currently working at the Institute of Systems Neurosciences in Marseille, where he is interested in the links between music, language and the brain with an opening to language pathologies. He believes that the symbiosis between science and technico-industrial innovation has now shifted into a pure and simple subservience relation.h methods; passionate about making higher education more accessible, with experience of undergraduate and graduate teaching.</t>
   </si>
 </sst>
 </file>
@@ -260,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -291,6 +312,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -344,13 +372,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -366,10 +398,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -452,48 +488,48 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="45.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="26.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="45.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="16.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="3" width="16.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="4" width="16.76"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AMJ1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="771.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -506,40 +542,40 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -550,42 +586,42 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="169.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="211.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -593,298 +629,310 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="393.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="407.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="211.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="107.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>76</v>
+        <v>28</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://complexsystemsupenn.com/"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://profiles.ucl.ac.uk/31489"/>
+    <hyperlink ref="E6" r:id="rId3" display="https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en"/>
+    <hyperlink ref="E7" r:id="rId4" display="https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://anneurai.net/"/>
+    <hyperlink ref="E10" r:id="rId6" display="https://florentmeyniel.weebly.com/"/>
+    <hyperlink ref="E11" r:id="rId7" display="https://neuroelectronics.ucsd.edu/"/>
+    <hyperlink ref="E12" r:id="rId8" display="https://patonlab.org/"/>
+    <hyperlink ref="E13" r:id="rId9" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
+    <hyperlink ref="E18" r:id="rId10" display="https://ins-amu.fr/danieleschon"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -61,16 +61,19 @@
     <t xml:space="preserve">Prof. Bassett is the J. Peter Skirkanich Professor at the University of Pennsylvania, with appointments in the Departments of Bioengineering, Electrical &amp; Systems Engineering, Physics &amp; Astronomy, Neurology, and Psychiatry. They are also an external professor of the Santa Fe Institute. Bassett is most well-known for blending neural and systems engineering to identify fundamental mechanisms of cognition and disease in human brain networks. They received a B.S. in physics from Penn State University and a Ph.D. in physics from the University of Cambridge, UK as a Churchill Scholar, and as an NIH Health Sciences Scholar. Following a postdoctoral position at UC Santa Barbara, Bassett was a Junior Research Fellow at the Sage Center for the Study of the Mind. They have received multiple prestigious awards, including American Psychological Association's ‘Rising Star’ (2012), Alfred P Sloan Research Fellow (2014), MacArthur Fellow Genius Grant (2014), Early Academic Achievement Award from the IEEE Engineering in Medicine and Biology Society (2015), Office of Naval Research Young Investigator (2015), National Science Foundation CAREER (2016), Popular Science Brilliant 10 (2016), Lagrange Prize in Complex Systems Science (2017), Erdos-Renyi Prize in Network Science (2018), OHBM Young Investigator Award (2020), AIMBE College of Fellows (2020), American Physical Society Fellow (2021), and has been named one of Web of Science's most Highly Cited Researchers for 3 years running. Bassett is the author of more than 300 peer-reviewed publications, which have garnered over 33,000 citations, as well as numerous book chapters and teaching materials. Bassett’s work has been supported by the National Science Foundation, the National Institutes of Health, the Army Research Office, the Army Research Laboratory, the Office of Naval Research, the Department of Defense, the Alfred P Sloan Foundation, the John D and Catherine T MacArthur Foundation, the Paul Allen Foundation, the ISI Foundation, and the Center for Curiosity. Bassett has an academic trade book coming out this year with MIT Press, co-authored with philosopher and twin Perry Zurn, and titled Curious Minds: The Power of Connection.</t>
   </si>
   <si>
+    <t xml:space="preserve">Coming soon… </t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_Alexandre.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Pouget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be specified</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coming soon…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_Alexandre.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandre Pouget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to be specified</t>
   </si>
   <si>
     <t xml:space="preserve">session_Valentina.html</t>
@@ -489,7 +492,7 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -577,10 +580,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -592,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -600,22 +603,22 @@
     </row>
     <row r="5" customFormat="false" ht="169.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -623,22 +626,22 @@
     </row>
     <row r="6" customFormat="false" ht="211.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
@@ -646,22 +649,22 @@
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -669,22 +672,22 @@
     </row>
     <row r="8" customFormat="false" ht="393.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -692,10 +695,10 @@
     </row>
     <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -707,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
@@ -715,22 +718,22 @@
     </row>
     <row r="10" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -738,22 +741,22 @@
     </row>
     <row r="11" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -761,45 +764,45 @@
     </row>
     <row r="12" customFormat="false" ht="407.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
@@ -807,10 +810,10 @@
     </row>
     <row r="14" customFormat="false" ht="211.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -822,7 +825,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>13</v>
@@ -830,10 +833,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -845,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
@@ -853,10 +856,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -868,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
@@ -876,10 +879,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -891,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
@@ -899,22 +902,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -212,12 +212,12 @@
     <t xml:space="preserve">https://patonlab.org/</t>
   </si>
   <si>
-    <t xml:space="preserve">Joseph Paton was born in Princeton, New Jersey, and grew up in New Jersey, New York and Connecticut. He received his undergraduate degree in biology from Tufts University in 2000. While studying, he worked in research positions at Tufts University and Harvard Medical School. From 2000 to 2002, he worked as a research technician at Stanford University and Columbia University. In 2008, he received his Ph.D. with distinction from Columbia University, and shortly thereafter joined the Champalimaud Neuroscience Programme, where he was a fellow from 2008 to 2012. He is currently a principal investigator at the Champalimaud Neuroscience Programme, and his laboratory focuses on the neural mechanisms of learning, decision making, action selection and timing, and is particularly centered on the role that the basal ganglia play in these processes. Experimental approaches employed in his laboratory include behavioral, electrophysiological, molecular, imaging, and computational techniques in rodent animal model organisms.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Joseph (Joe) Paton received his undergraduate degree in biology from Tufts University in 2000. In 2008, he received his Ph.D. with distinction from Columbia University in Neurobiology and Behavior, and shortly thereafter joined the Champalimaud Neuroscience Programme, where he was a fellow from 2008 to 2012. He is currently a Principal Investigator and Director of the Champalimaud Neuroscience Programme (CNP) at the Champalimaud Foundation (CF) in Lisbon, Portugal. He is an alumnus of the Simons Foundation on the Global Brain, a Howard Hughes Medical Institute International Research Scholar, and a current holder of a consolidator grant from the European Research Council. His laboratory focuses on the neural mechanisms and computational principles of learning, decision-making, action selection and timing. In the course of trying to understand how the brain combines these functions to produce intelligent behavior, he has increasingly moved into areas that overlap with modern AI research. During his mandate as CNP Director, Paton has also spearheaded the development of a new Digital Therapeutics center at CF, as well as representing CF as a member of the recently announced Centre for Responsible AI.</t>
   </si>
   <si>
+    <t xml:space="preserve">The brain, broadly speaking, is for control. 600 million years of evolution has endowed nervous systems with a multitude of mechanisms for achieving that control. In vertebrates, mechanisms in the spinal cord and hindbrain are responsible for more automatized forms of control: reflex circuits, central pattern generators, and circuits for movement primitives. These processes can be selected amongst, modulated, and chained together by the descending influence of brain systems positioned more rostrally that possess a rich capacity to learn from experience. It is these more adaptive systems that my laboratory is most interested in understanding. And yet, control by these systems appears to be fundamentally both heterarchical, requiring distinct computations performed by specific brain systems, and hierarchical, with each system operating at varying degrees of abstraction in relation to the immediate physical world. In this talk, I will describe how experiments in my laboratory focused on understanding how neural circuits are provided a temporal basis computation have revealed not only fundamental principles underlying temporal processing, but also signatures of how hierarchies of representations can interact to produce robust policies for behavior, and how distinct aspects of behavioral control appear to be handled by different brain systems.</t>
+  </si>
+  <si>
     <t xml:space="preserve">session_YoungResearcher1.html</t>
   </si>
   <si>
@@ -233,13 +233,28 @@
     <t xml:space="preserve">https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en</t>
   </si>
   <si>
+    <t xml:space="preserve">Post-doctoral researcher in computational and network neuroscience at the University of Oxford and St John's College, Cambridge. Through the lens of complex systems, I investigate how the interactions of brain function and structure enable information processing, exploring the intersection of neuroscience and AI. Background in philosophy, cognitive science and neuroscience; expertise in data analysis, network modelling and neuroimaging research methods; passionate about making higher education more accessible, with experience of undergraduate and graduate teaching.</t>
+  </si>
+  <si>
     <t xml:space="preserve">session_YoungResearcher2.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Young Researcher#2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-doctoral researcher in computational and network neuroscience at the University of Oxford and St John's College, Cambridge. Through the lens of complex systems, I investigate how the interactions of brain function and structure enable information processing, exploring the intersection of neuroscience and AI. Background in philosophy, cognitive science and neuroscience; expertise in data analysis, network modelling and neuroimaging research methods; passionate about making higher education more accessible, with experience of undergraduate and graduate teaching.</t>
+    <t xml:space="preserve">Marcelo J. Moglie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/speakers/Marcelo_Moglie.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francis Crick Institute, United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelo obtained his undergraduate degree in Biological Sciences from the University of Buenos Aires, Argentina. He conducted his undergrad thesis in the lab of Prof. Ana Belén Elgoyhen, elucidating how evolution shaped the pharmacological profile of cochlear receptors. During his Ph.D., he studied the segregation of inhibitory and excitatory signals in the peripheral auditory system under the guidance of Dr. Juan Goutman at INGEBI (Buenos Aires). In 2020, he became a postdoctoral researcher in the laboratory of Dr. Florencia Iacaruso.  His project is focused on understanding the neural basis of sensorimotor transformations during pursuit behaviours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraction of relevant stimulus features from the dynamic sensory scene needs to be coupled to the execution of appropriate adaptive responses to ensure survival. A predator needs to evaluate its position with respect to that of moving prey, define an approach strategy and carry out the proper motor commands to execute it. The most efficient strategy will require an estimation of the future position of the target and should account for the predator’s sensorimotor processing delays to make a predictive interception. Mice can hunt moving prey and have been established as a successful model to study visually guided pursuit and capture behaviours. We aim to recapitulate elements of naturalistic prey capture in mice using a novel behavioural paradigm. Closed-loop presentation of visual stimuli on a touchscreen guided highly reproducible pursuit behaviours. In each session, mice performed hundreds of trials during which target interception was dependent on the velocity and contrast of the target. We show mice can adapt their pursuit strategy to the demands of the task by modifying their running speed and the trajectory followed to reach the target. Our research focuses on the role of midbrain structures involved in orienting behaviours. Optogenetic silencing the superior colliculus demonstrated the integration of spatiotemporal features of moving sensory stimuli and links it to the execution of motor commands that guide the pursuit strategy. </t>
   </si>
   <si>
     <t xml:space="preserve">session_YoungResearcher3.html</t>
@@ -491,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -762,7 +777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="407.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="463.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -785,7 +800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="210.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -802,41 +817,41 @@
         <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="211.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="489.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -856,10 +871,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -879,10 +894,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -902,22 +917,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
@@ -934,7 +949,8 @@
     <hyperlink ref="E11" r:id="rId7" display="https://neuroelectronics.ucsd.edu/"/>
     <hyperlink ref="E12" r:id="rId8" display="https://patonlab.org/"/>
     <hyperlink ref="E13" r:id="rId9" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
-    <hyperlink ref="E18" r:id="rId10" display="https://ins-amu.fr/danieleschon"/>
+    <hyperlink ref="E14" r:id="rId10" display="https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie"/>
+    <hyperlink ref="E18" r:id="rId11" display="https://ins-amu.fr/danieleschon"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t xml:space="preserve">Athena Akrami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/speakers/Athena_Akrami.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sainsbury Wellcome Centre, University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sainsburywellcome.org/web/groups/akrami-lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athena Akrami joined the faculty at the Sainsbury Wellcome Centre, UCL, in October 2018. She obtained her BA in Biomedical Engineering from Tehran Polytechnic (Amirkabir University of Technology) and her PhD in Computational Neuroscience from International School for Advanced Studies (SISSA, Trieste), with Alessandro Treves.  She was a postdoctoral fellow at SISSA where she worked with Mathew Diamond, and then at Princeton University where she was a Howard Hughes Medical Institute fellow and worked with Carlos Brody on Parametric Working Memory.</t>
   </si>
   <si>
     <t xml:space="preserve">session_Florent.html</t>
@@ -506,8 +518,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -708,7 +720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -716,16 +728,16 @@
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>13</v>
@@ -733,22 +745,22 @@
     </row>
     <row r="10" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -756,22 +768,22 @@
     </row>
     <row r="11" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -779,45 +791,45 @@
     </row>
     <row r="12" customFormat="false" ht="463.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="210.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
@@ -825,33 +837,33 @@
     </row>
     <row r="14" customFormat="false" ht="489.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -871,10 +883,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -894,10 +906,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -917,22 +929,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
@@ -945,12 +957,13 @@
     <hyperlink ref="E6" r:id="rId3" display="https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en"/>
     <hyperlink ref="E7" r:id="rId4" display="https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en"/>
     <hyperlink ref="E8" r:id="rId5" display="https://anneurai.net/"/>
-    <hyperlink ref="E10" r:id="rId6" display="https://florentmeyniel.weebly.com/"/>
-    <hyperlink ref="E11" r:id="rId7" display="https://neuroelectronics.ucsd.edu/"/>
-    <hyperlink ref="E12" r:id="rId8" display="https://patonlab.org/"/>
-    <hyperlink ref="E13" r:id="rId9" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
-    <hyperlink ref="E14" r:id="rId10" display="https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie"/>
-    <hyperlink ref="E18" r:id="rId11" display="https://ins-amu.fr/danieleschon"/>
+    <hyperlink ref="E9" r:id="rId6" display="https://www.sainsburywellcome.org/web/groups/akrami-lab"/>
+    <hyperlink ref="E10" r:id="rId7" display="https://florentmeyniel.weebly.com/"/>
+    <hyperlink ref="E11" r:id="rId8" display="https://neuroelectronics.ucsd.edu/"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://patonlab.org/"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie"/>
+    <hyperlink ref="E18" r:id="rId12" display="https://ins-amu.fr/danieleschon"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">Athena Akrami joined the faculty at the Sainsbury Wellcome Centre, UCL, in October 2018. She obtained her BA in Biomedical Engineering from Tehran Polytechnic (Amirkabir University of Technology) and her PhD in Computational Neuroscience from International School for Advanced Studies (SISSA, Trieste), with Alessandro Treves.  She was a postdoctoral fellow at SISSA where she worked with Mathew Diamond, and then at Princeton University where she was a Howard Hughes Medical Institute fellow and worked with Carlos Brody on Parametric Working Memory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A defining feature of animal intelligence is the ability to discover and update knowledge of statistical regularities in the sensory environment, in service of adaptive behaviour. This allows animals to build appropriate priors, in order to disambiguate noisy inputs, make predictions and act more efficiently. Despite decades of research in the field of human cognition and theoretical neuroscience, it is not known how such learning can be implemented in the brain. By combining sophisticated cognitive tasks in humans, rats, and mice, as well as neuronal measurements and perturbations in the rodent brain and computational modelling, we seek to build a multi-level description of how sensory history is utilised in inferring regularities in temporally extended tasks. In this talk, I will specifically focus on a cross-species model to study statistical learning, in both feedback-based and non-feedback-based settings.</t>
   </si>
   <si>
     <t xml:space="preserve">session_Florent.html</t>
@@ -519,7 +522,7 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -720,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="280.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -740,27 +743,27 @@
         <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -768,22 +771,22 @@
     </row>
     <row r="11" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -791,45 +794,45 @@
     </row>
     <row r="12" customFormat="false" ht="463.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="210.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
@@ -837,33 +840,33 @@
     </row>
     <row r="14" customFormat="false" ht="489.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -883,10 +886,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -906,10 +909,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -929,22 +932,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -275,7 +275,7 @@
     <t xml:space="preserve">session_YoungResearcher3.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Young Researcher#3</t>
+    <t xml:space="preserve">Garance Meyer</t>
   </si>
   <si>
     <t xml:space="preserve">session_Aya.html</t>
@@ -521,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rita Goldstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icahn School of Medicine at Mount Sinai, US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://profiles.mountsinai.org/rita-goldstein</t>
   </si>
   <si>
     <t xml:space="preserve">session_Daniele.html</t>
@@ -521,8 +527,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -918,10 +924,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>88</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>17</v>
@@ -932,22 +938,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
@@ -966,7 +972,8 @@
     <hyperlink ref="E12" r:id="rId9" display="https://patonlab.org/"/>
     <hyperlink ref="E13" r:id="rId10" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
     <hyperlink ref="E14" r:id="rId11" display="https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie"/>
-    <hyperlink ref="E18" r:id="rId12" display="https://ins-amu.fr/danieleschon"/>
+    <hyperlink ref="E17" r:id="rId12" display="https://profiles.mountsinai.org/rita-goldstein"/>
+    <hyperlink ref="E18" r:id="rId13" display="https://ins-amu.fr/danieleschon"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -290,10 +290,16 @@
     <t xml:space="preserve">Rita Goldstein</t>
   </si>
   <si>
+    <t xml:space="preserve">assets/img/speakers/Rita_Goldstein.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">Icahn School of Medicine at Mount Sinai, US</t>
   </si>
   <si>
     <t xml:space="preserve">https://profiles.mountsinai.org/rita-goldstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rita Z. Goldstein, PhD, is the Mount Sinai Professor in Neuroimaging of Addiction in the departments of Psychiatry and Neuroscience at the Icahn School of Medicine at Mount Sinai. Dr. Goldstein is Chief of the Neuropsychoimaging of Addiction and Related Conditions research group.   Nationally and internationally known for her neuroimaging and neuropsychological studies in drug addiction, Dr. Goldstein formulated a theoretical model known as Impaired Response Inhibition and Salience Attribution (iRISA). Multiple neuroimaging modalities—including MRI, EEG/ERP, PET—and neuropsychological tests are used to explore the neurobiological underpinnings of iRISA in drug addiction and related conditions. This model has drawn considerable scientific attention (exceeding a total of 6,700 citations for reviews published in the Am J Psychiatry in 2002, Nature Reviews Neuroscience in 2011, and Neuron in 2018). An important application of Dr. Goldstein’s research is to facilitate the development of intervention modalities that would improve cognitive and emotional function, leading to better treatment outcomes, in drug addiction and other chronically relapsing disorders of self-regulation.  Dr. Goldstein has authored or co-authored more than 150 highly-cited, peer-reviewed manuscripts and computer science proceedings focusing on the role of the prefrontal cortex in drug addiction. Her research has been independently funded by several federal and private agencies, with total funding of more than $25 million (as a principal or multiple investigator or program director). She became a fellow of the American College of Neuropsychopharmacology in 2015, now serving on its scientific council, receiving the prestigious Joel Elkes Research Award in 2012 and the Jacob P. Waletzky Award in 2013.   Mentoring is a high priority for Dr. Goldstein. She has mentored numerous trainees, spanning from postdoctoral fellows to graduate, undergraduate, and high school students. Her trainees have published many first authorship manuscripts in top psychiatry and neuroscience journals, have become principal investigators on their own NIH-funded grants, and many of them are now leading independent research labs at prestigious institutions.  Dr. Goldstein earned an undergraduate degree from Tel Aviv University in Israel. She received her PhD in Health Clinical Psychology from the University of Miami after completing a yearlong internship in clinical neuropsychology at the Long Island Jewish Medical Center. She then completed her postdoctoral training on brain imaging and alcohol abuse through a fellowship from the National Institutes of Health at Brookhaven National Laboratory, under the mentorship of Drs. Nora D. Volkow and Joanna S. Fowler.</t>
   </si>
   <si>
     <t xml:space="preserve">session_Daniele.html</t>
@@ -527,8 +533,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -913,7 +919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -921,16 +927,16 @@
         <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
@@ -938,22 +944,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -299,7 +299,7 @@
     <t xml:space="preserve">https://profiles.mountsinai.org/rita-goldstein</t>
   </si>
   <si>
-    <t xml:space="preserve">Rita Z. Goldstein, PhD, is the Mount Sinai Professor in Neuroimaging of Addiction in the departments of Psychiatry and Neuroscience at the Icahn School of Medicine at Mount Sinai. Dr. Goldstein is Chief of the Neuropsychoimaging of Addiction and Related Conditions research group.   Nationally and internationally known for her neuroimaging and neuropsychological studies in drug addiction, Dr. Goldstein formulated a theoretical model known as Impaired Response Inhibition and Salience Attribution (iRISA). Multiple neuroimaging modalities—including MRI, EEG/ERP, PET—and neuropsychological tests are used to explore the neurobiological underpinnings of iRISA in drug addiction and related conditions. This model has drawn considerable scientific attention (exceeding a total of 6,700 citations for reviews published in the Am J Psychiatry in 2002, Nature Reviews Neuroscience in 2011, and Neuron in 2018). An important application of Dr. Goldstein’s research is to facilitate the development of intervention modalities that would improve cognitive and emotional function, leading to better treatment outcomes, in drug addiction and other chronically relapsing disorders of self-regulation.  Dr. Goldstein has authored or co-authored more than 150 highly-cited, peer-reviewed manuscripts and computer science proceedings focusing on the role of the prefrontal cortex in drug addiction. Her research has been independently funded by several federal and private agencies, with total funding of more than $25 million (as a principal or multiple investigator or program director). She became a fellow of the American College of Neuropsychopharmacology in 2015, now serving on its scientific council, receiving the prestigious Joel Elkes Research Award in 2012 and the Jacob P. Waletzky Award in 2013.   Mentoring is a high priority for Dr. Goldstein. She has mentored numerous trainees, spanning from postdoctoral fellows to graduate, undergraduate, and high school students. Her trainees have published many first authorship manuscripts in top psychiatry and neuroscience journals, have become principal investigators on their own NIH-funded grants, and many of them are now leading independent research labs at prestigious institutions.  Dr. Goldstein earned an undergraduate degree from Tel Aviv University in Israel. She received her PhD in Health Clinical Psychology from the University of Miami after completing a yearlong internship in clinical neuropsychology at the Long Island Jewish Medical Center. She then completed her postdoctoral training on brain imaging and alcohol abuse through a fellowship from the National Institutes of Health at Brookhaven National Laboratory, under the mentorship of Drs. Nora D. Volkow and Joanna S. Fowler.</t>
+    <t xml:space="preserve">Rita Z. Goldstein, PhD, is the Mount Sinai Professor in Neuroimaging of Addiction in the departments of Psychiatry and Neuroscience at the Icahn School of Medicine at Mount Sinai. Dr. Goldstein is Chief of the Neuropsychoimaging of Addiction and Related Conditions research group.   Nationally and internationally known for her neuroimaging and neuropsychological studies in drug addiction, Dr. Goldstein formulated a theoretical model known as Impaired Response Inhibition and Salience Attribution (iRISA). Multiple neuroimaging modalities—including MRI, EEG/ERP, PET—and neuropsychological tests are used to explore the neurobiological underpinnings of iRISA in drug addiction and related conditions. This model has drawn considerable scientific attention (exceeding a total of 6,700 citations for reviews published in the Am J Psychiatry in 2002, Nature Reviews Neuroscience in 2011, and Neuron in 2018). An important application of Dr. Goldstein’s research is to facilitate the development of intervention modalities that would improve cognitive and emotional function, leading to better treatment outcomes, in drug addiction and other chronically relapsing disorders of self-regulation.</t>
   </si>
   <si>
     <t xml:space="preserve">session_Daniele.html</t>
@@ -533,8 +533,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">assets/img/speakers/placeholder.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Pennsylvania &amp; Santa Fe Institute</t>
+    <t xml:space="preserve">University of Pennsylvania &amp; Santa Fe Institute, USA</t>
   </si>
   <si>
     <t xml:space="preserve">https://complexsystemsupenn.com/</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">assets/img/speakers/Kenneth_Harris.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">University College London</t>
+    <t xml:space="preserve">University College London, United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">https://profiles.ucl.ac.uk/31489</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">assets/img/speakers/Pascale_Quilichini.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Institut de Neurosciences des Systemes (INS), University of Aix-Marseille, CNRS</t>
+    <t xml:space="preserve">Institut de Neurosciences des Systemes (INS), University of Aix-Marseille, CNRS, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">assets/img/speakers/Maurizio_Corbetta.png</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Padua (Italy)</t>
+    <t xml:space="preserve">University of Padua, Italy</t>
   </si>
   <si>
     <t xml:space="preserve">https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">assets/img/speakers/Anne_Urai.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Leiden University</t>
+    <t xml:space="preserve">Leiden University, Netherlands</t>
   </si>
   <si>
     <t xml:space="preserve">https://anneurai.net/</t>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">assets/img/speakers/Athena_Akrami.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Sainsbury Wellcome Centre, University College London</t>
+    <t xml:space="preserve">Sainsbury Wellcome Centre, University College London, United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.sainsburywellcome.org/web/groups/akrami-lab</t>
@@ -181,7 +181,7 @@
     <t xml:space="preserve">assets/img/speakers/Florent_Meyniel.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">CEA, CNRS, Université Paris-Saclay</t>
+    <t xml:space="preserve">CEA, CNRS, Université Paris-Saclay, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://florentmeyniel.weebly.com/</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">assets/img/speakers/Duygu_Kuzum.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">University of California San Diego</t>
+    <t xml:space="preserve">University of California San Diego, USA</t>
   </si>
   <si>
     <t xml:space="preserve">https://neuroelectronics.ucsd.edu/</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">assets/img/speakers/Andrea_Luppi.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Oxford and University of Cambridge (UK)</t>
+    <t xml:space="preserve">University of Oxford and University of Cambridge, United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en</t>
@@ -278,6 +278,12 @@
     <t xml:space="preserve">Garance Meyer</t>
   </si>
   <si>
+    <t xml:space="preserve">assets/img/speakers/Garance_Meyer.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brigham and Women’s Hospital - Harvard Medical School, USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">session_Aya.html</t>
   </si>
   <si>
@@ -290,10 +296,10 @@
     <t xml:space="preserve">Rita Goldstein</t>
   </si>
   <si>
-    <t xml:space="preserve">assets/img/speakers/Rita_Goldstein.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icahn School of Medicine at Mount Sinai, US</t>
+    <t xml:space="preserve">assets/img/speakers/Rita_Goldstein.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Icahn School of Medicine at Mount Sinai, USA</t>
   </si>
   <si>
     <t xml:space="preserve">https://profiles.mountsinai.org/rita-goldstein</t>
@@ -533,8 +539,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -881,10 +887,10 @@
         <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -898,10 +904,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -921,22 +927,22 @@
     </row>
     <row r="17" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
@@ -944,22 +950,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -70,16 +70,31 @@
     <t xml:space="preserve">Alexandre Pouget</t>
   </si>
   <si>
+    <t xml:space="preserve">assets/img/speakers/Alexandre_Pouget.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faculty of Medicine, Department of Basic Neurosciences, Geneva University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://neurocenter-unige.ch/research-groups/alexandre-pouget/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre Pouget is a full Professor at the University of Geneva in the department of basic neurosciences. He received his undergraduate education at the École normale supérieure (Paris), before moving to the Salk Institute in 1988 to pursue a PhD in computational neuroscience in Terry Sejnowski's laboratory. After a postdoc at UCLA with John Schlag in 1994, he became a professor at Georgetown University in 1996, then at the University of Rochester in the Brain and Cognitive Science department in 1999 before moving to the University of Geneva in 2011. Pouget was awarded the Carnegie Prize in Brain and Mind Sciences in 2016. He is the author of more than 100 papers and the editor of one book. He co-founded the Computational and Systems Neuroscience conference in 2004 with Anthony Zador. In 2016, he co-founded the International Brain Laboratory with Zachary Mainen and Michael Hausser, the first international CERN-like collaboration in systems neuroscience. His research focuses on general theories of representation and computation in neural circuits with a strong emphasis on neural theories of probabilistic inference. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The neural representations of prior information about the state of the world are poorly understood. To investigate this issue, we examined brain-wide Neuropixels recordings and widefield calcium imaging collected by the International Brain Laboratory. Mice were trained to indicate the location of a visual grating stimulus, which appeared on the left or right with prior probability alternating between 0.2 and 0.8 in blocks of variable length. We found that mice estimate this prior probability and thereby improve their decision accuracy. Furthermore, we report that this subjective prior is encoded in at least 20% to 30% of brain regions which, remarkably, span all levels of processing, from early sensory areas (LGd, VISp) to motor regions (MOs, MOp, GRN) and high level cortical regions (ACCd, ORBvl). This widespread representation of the prior is consistent with a neural model of Bayesian inference involving loops between areas, as opposed to a model in which the prior is incorporated only in decision making areas. This study offers the first brain-wide perspective on prior encoding at cellular resolution, underscoring the importance of using large scale recordings on a single standardized task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_Valentina.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina Emiliani</t>
+  </si>
+  <si>
     <t xml:space="preserve">to be specified</t>
   </si>
   <si>
     <t xml:space="preserve">Coming soon…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_Valentina.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valentina Emiliani</t>
   </si>
   <si>
     <t xml:space="preserve">session_Kenneth.html</t>
@@ -539,8 +554,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -603,7 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="369.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -611,39 +626,39 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -651,22 +666,22 @@
     </row>
     <row r="5" customFormat="false" ht="169.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -674,22 +689,22 @@
     </row>
     <row r="6" customFormat="false" ht="211.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
@@ -697,22 +712,22 @@
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -720,22 +735,22 @@
     </row>
     <row r="8" customFormat="false" ht="393.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -743,45 +758,45 @@
     </row>
     <row r="9" customFormat="false" ht="280.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -789,22 +804,22 @@
     </row>
     <row r="11" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -812,45 +827,45 @@
     </row>
     <row r="12" customFormat="false" ht="463.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="210.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
@@ -858,45 +873,45 @@
     </row>
     <row r="14" customFormat="false" ht="489.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
@@ -904,22 +919,22 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
@@ -927,22 +942,22 @@
     </row>
     <row r="17" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
@@ -950,22 +965,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>
@@ -974,18 +989,19 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://complexsystemsupenn.com/"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://profiles.ucl.ac.uk/31489"/>
-    <hyperlink ref="E6" r:id="rId3" display="https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en"/>
-    <hyperlink ref="E8" r:id="rId5" display="https://anneurai.net/"/>
-    <hyperlink ref="E9" r:id="rId6" display="https://www.sainsburywellcome.org/web/groups/akrami-lab"/>
-    <hyperlink ref="E10" r:id="rId7" display="https://florentmeyniel.weebly.com/"/>
-    <hyperlink ref="E11" r:id="rId8" display="https://neuroelectronics.ucsd.edu/"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://patonlab.org/"/>
-    <hyperlink ref="E13" r:id="rId10" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
-    <hyperlink ref="E14" r:id="rId11" display="https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie"/>
-    <hyperlink ref="E17" r:id="rId12" display="https://profiles.mountsinai.org/rita-goldstein"/>
-    <hyperlink ref="E18" r:id="rId13" display="https://ins-amu.fr/danieleschon"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://neurocenter-unige.ch/research-groups/alexandre-pouget/"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://profiles.ucl.ac.uk/31489"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en"/>
+    <hyperlink ref="E7" r:id="rId5" display="https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://anneurai.net/"/>
+    <hyperlink ref="E9" r:id="rId7" display="https://www.sainsburywellcome.org/web/groups/akrami-lab"/>
+    <hyperlink ref="E10" r:id="rId8" display="https://florentmeyniel.weebly.com/"/>
+    <hyperlink ref="E11" r:id="rId9" display="https://neuroelectronics.ucsd.edu/"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://patonlab.org/"/>
+    <hyperlink ref="E13" r:id="rId11" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
+    <hyperlink ref="E14" r:id="rId12" display="https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie"/>
+    <hyperlink ref="E17" r:id="rId13" display="https://profiles.mountsinai.org/rita-goldstein"/>
+    <hyperlink ref="E18" r:id="rId14" display="https://ins-amu.fr/danieleschon"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -91,10 +91,16 @@
     <t xml:space="preserve">Valentina Emiliani</t>
   </si>
   <si>
+    <t xml:space="preserve">Vision Institute, Paris, France </t>
+  </si>
+  <si>
     <t xml:space="preserve">to be specified</t>
   </si>
   <si>
     <t xml:space="preserve">Coming soon…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The genetic targeting of neuronal cells with activity reporters, such as calcium or voltage indicators, has driven a paradigmatic shift in neuroscience, where photons have replaced electrons in reading large-scale brain activities at cellular resolution. Simultaneously, optogenetics has shown that targeting neuronal cells with photosensitive microbial opsins enables the transduction of photons into electrical currents of opposing polarities. This allows for the activation or inhibition of neuronal signals in a minimally invasive manner. These advances have, in turn, spurred the development of sophisticated wavefront-shaping techniques to enable "all-optical" interrogation of deep brain circuits with high spatial and temporal resolution across large volumes. In this presentation, we will discuss the most recent approaches that we have recently proposed to enhance the capacity for patterned all-optical circuit manipulation. These approaches enable efficient in vivo two-photon multitarget optogenetic photostimulation and voltage imaging in both head-fixed and freely moving mice. As an example of patterned optogenetics, we will present a recent experiment demonstrating high-throughput connectivity mapping in the mouse visual cortex.</t>
   </si>
   <si>
     <t xml:space="preserve">session_Kenneth.html</t>
@@ -554,7 +560,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -641,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -655,33 +661,33 @@
         <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="169.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -689,22 +695,22 @@
     </row>
     <row r="6" customFormat="false" ht="211.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
@@ -712,22 +718,22 @@
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -735,22 +741,22 @@
     </row>
     <row r="8" customFormat="false" ht="393.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -758,45 +764,45 @@
     </row>
     <row r="9" customFormat="false" ht="280.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -804,22 +810,22 @@
     </row>
     <row r="11" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -827,45 +833,45 @@
     </row>
     <row r="12" customFormat="false" ht="463.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="210.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
@@ -873,45 +879,45 @@
     </row>
     <row r="14" customFormat="false" ht="489.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
@@ -919,22 +925,22 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
@@ -942,22 +948,22 @@
     </row>
     <row r="17" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
@@ -965,22 +971,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
   <si>
     <t xml:space="preserve">HTML_file</t>
   </si>
@@ -91,67 +91,73 @@
     <t xml:space="preserve">Valentina Emiliani</t>
   </si>
   <si>
+    <t xml:space="preserve">assets/img/speakers/Valentina_Emiliani.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vision Institute, Paris, France </t>
   </si>
   <si>
-    <t xml:space="preserve">to be specified</t>
+    <t xml:space="preserve">https://www.optica.org/History/Biographies/bios/Valentina_Emiliani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina Emiliani is a CNRS research director at the Vision Institute in Paris. After a PhD in physics at La Sapienza University (Rome) and a postdoctoral fellowship at the Max Born Institute (Berlin) and at the European Laboratory for Nonlinear Spectroscopy (Florence) she joined in 2002 the Institute Jacques Monod (Paris). In 2005 she received the European Young Investigator grant and formed the Wavefront Engineering Microscopy group at Paris Descartes University. In 2019, she moved with her team to the Vision Institute, where she also directs the Photonics Department.  Valentina and her group have pioneered the use of wave-front engineering for neuroscience. Precisely, they have combined approaches such as computer-generated holography, generalized phase contrast and temporal focusing with optogenetics to control neuronal activity with unprecedent spatiotemporal precision. Their findings paved the way to optogenetic manipulation of intact brain circuits with single cell resolution: an essential methodology to perturb and activate neural circuits for interrogating brain function.  She has received the Award "Coups d'élan pour la recherche française" from the Bettencourt-Shueller foundation in 2015, the Axa Chair in 2017, the ERC advanced Grant in 2021, the "Médaille d'argent" from CNRS and the Maxime Dahan Prize in 2021. She received the Michael S. Feld Biophotonics Award in 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The genetic targeting of neuronal cells with activity reporters, such as calcium or voltage indicators, has driven a paradigmatic shift in neuroscience, where photons have replaced electrons in reading large-scale brain activities at cellular resolution. Simultaneously, optogenetics has shown that targeting neuronal cells with photosensitive microbial opsins enables the transduction of photons into electrical currents of opposing polarities. This allows for the activation or inhibition of neuronal signals in a minimally invasive manner. These advances have, in turn, spurred the development of sophisticated wavefront-shaping techniques to enable "all-optical" interrogation of deep brain circuits with high spatial and temporal resolution across large volumes. In this presentation, we will discuss the most recent approaches that we have recently proposed to enhance the capacity for patterned all-optical circuit manipulation. These approaches enable efficient in vivo two-photon multitarget optogenetic photostimulation and voltage imaging in both head-fixed and freely moving mice. As an example of patterned optogenetics, we will present a recent experiment demonstrating high-throughput connectivity mapping in the mouse visual cortex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_Kenneth.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/speakers/Kenneth_Harris.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College London, United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://profiles.ucl.ac.uk/31489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth studied mathematics at Cambridge University, did a PhD in robotics at UCL, then moved to Rutgers University in the United States for postdoctoral work in neuroscience. Before returning to UCL in 2012, he was Associate Professor of Neuroscience at Rutgers, and Professor of Neurotechnology at Imperial College London. He is currently Professor of Quantitative Neuroscience in the UCL Institute of Neurology, and together with Matteo Carandini directs the Cortexlab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_Pascale.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascale P Quilichini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/speakers/Pascale_Quilichini.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institut de Neurosciences des Systemes (INS), University of Aix-Marseille, CNRS, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am the "Dynamics of Neuronal Networks and Memory” group leader. We currently investigate the interactions between the temporal lobe (hippocampus and parahippocampal cortices), the thalamus (Nucleus Reuniens) and prefrontal cortex in the context of memory consolidation in physiological and pathological conditions. Our goal is to map the inner dynamics, both at the individual neuronal and functional connectivity levels, among these networks in order to decipher the mechanisms supporting the transfer of information for its long-term storage and how these processes are altered in pathology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">session_Maurizio.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurizio Corbetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assets/img/speakers/Maurizio_Corbetta.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Padua, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t xml:space="preserve">Coming soon…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The genetic targeting of neuronal cells with activity reporters, such as calcium or voltage indicators, has driven a paradigmatic shift in neuroscience, where photons have replaced electrons in reading large-scale brain activities at cellular resolution. Simultaneously, optogenetics has shown that targeting neuronal cells with photosensitive microbial opsins enables the transduction of photons into electrical currents of opposing polarities. This allows for the activation or inhibition of neuronal signals in a minimally invasive manner. These advances have, in turn, spurred the development of sophisticated wavefront-shaping techniques to enable "all-optical" interrogation of deep brain circuits with high spatial and temporal resolution across large volumes. In this presentation, we will discuss the most recent approaches that we have recently proposed to enhance the capacity for patterned all-optical circuit manipulation. These approaches enable efficient in vivo two-photon multitarget optogenetic photostimulation and voltage imaging in both head-fixed and freely moving mice. As an example of patterned optogenetics, we will present a recent experiment demonstrating high-throughput connectivity mapping in the mouse visual cortex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_Kenneth.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/speakers/Kenneth_Harris.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University College London, United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://profiles.ucl.ac.uk/31489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth studied mathematics at Cambridge University, did a PhD in robotics at UCL, then moved to Rutgers University in the United States for postdoctoral work in neuroscience. Before returning to UCL in 2012, he was Associate Professor of Neuroscience at Rutgers, and Professor of Neurotechnology at Imperial College London. He is currently Professor of Quantitative Neuroscience in the UCL Institute of Neurology, and together with Matteo Carandini directs the Cortexlab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_Pascale.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pascale P Quilichini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/speakers/Pascale_Quilichini.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institut de Neurosciences des Systemes (INS), University of Aix-Marseille, CNRS, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am the "Dynamics of Neuronal Networks and Memory” group leader. We currently investigate the interactions between the temporal lobe (hippocampus and parahippocampal cortices), the thalamus (Nucleus Reuniens) and prefrontal cortex in the context of memory consolidation in physiological and pathological conditions. Our goal is to map the inner dynamics, both at the individual neuronal and functional connectivity levels, among these networks in order to decipher the mechanisms supporting the transfer of information for its long-term storage and how these processes are altered in pathology.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_Maurizio.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maurizio Corbetta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assets/img/speakers/Maurizio_Corbetta.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Padua, Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t xml:space="preserve">session_Anne.html</t>
@@ -303,6 +309,9 @@
   </si>
   <si>
     <t xml:space="preserve">Brigham and Women’s Hospital - Harvard Medical School, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to be specified</t>
   </si>
   <si>
     <t xml:space="preserve">session_Aya.html</t>
@@ -561,7 +570,7 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,7 +656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="432.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -655,39 +664,39 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="169.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>13</v>
@@ -695,22 +704,22 @@
     </row>
     <row r="6" customFormat="false" ht="211.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>13</v>
@@ -718,22 +727,22 @@
     </row>
     <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>13</v>
@@ -741,22 +750,22 @@
     </row>
     <row r="8" customFormat="false" ht="393.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -764,45 +773,45 @@
     </row>
     <row r="9" customFormat="false" ht="280.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -810,22 +819,22 @@
     </row>
     <row r="11" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -833,45 +842,45 @@
     </row>
     <row r="12" customFormat="false" ht="463.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="210.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
@@ -879,45 +888,45 @@
     </row>
     <row r="14" customFormat="false" ht="489.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
@@ -925,22 +934,22 @@
     </row>
     <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
@@ -948,22 +957,22 @@
     </row>
     <row r="17" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>13</v>
@@ -971,22 +980,22 @@
     </row>
     <row r="18" customFormat="false" ht="379.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>13</v>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -97,10 +97,37 @@
     <t xml:space="preserve">Vision Institute, Paris, France </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.optica.org/History/Biographies/bios/Valentina_Emiliani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valentina Emiliani is a CNRS research director at the Vision Institute in Paris. After a PhD in physics at La Sapienza University (Rome) and a postdoctoral fellowship at the Max Born Institute (Berlin) and at the European Laboratory for Nonlinear Spectroscopy (Florence) she joined in 2002 the Institute Jacques Monod (Paris). In 2005 she received the European Young Investigator grant and formed the Wavefront Engineering Microscopy group at Paris Descartes University. In 2019, she moved with her team to the Vision Institute, where she also directs the Photonics Department.  Valentina and her group have pioneered the use of wave-front engineering for neuroscience. Precisely, they have combined approaches such as computer-generated holography, generalized phase contrast and temporal focusing with optogenetics to control neuronal activity with unprecedent spatiotemporal precision. Their findings paved the way to optogenetic manipulation of intact brain circuits with single cell resolution: an essential methodology to perturb and activate neural circuits for interrogating brain function.  She has received the Award "Coups d'élan pour la recherche française" from the Bettencourt-Shueller foundation in 2015, the Axa Chair in 2017, the ERC advanced Grant in 2021, the "Médaille d'argent" from CNRS and the Maxime Dahan Prize in 2021. She received the Michael S. Feld Biophotonics Award in 2022.</t>
+    <t xml:space="preserve">https://www.institut-vision.org/en/research/wavefront-engineering-microscopy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Valentina Emiliani is a CNRS research director at the Vision Institute in Paris. After a PhD in physics at La Sapienza University (Rome) and a postdoctoral fellowship at the Max Born Institute (Berlin) and at the European Laboratory for Nonlinear Spectroscopy (Florence) she joined in 2002 the Institute Jacques Monod (Paris). In 2005 she received the European Young Investigator grant and formed the Wavefront Engineering Microscopy group at Paris Descartes University. In 2019, she moved with her team to the Vision Institute, where she also directs the Photonics Department.  Valentina and her group have pioneered the use of wave-front engineering for neuroscience. Precisely, they have combined approaches such as computer-generated holography, generalized phase contrast and temporal focusing with optogenetics to control neuronal activity with unprecedent spatiotemporal precision. Their findings paved the way to optogenetic manipulation of intact brain circuits with single cell resolution: an essential methodology to perturb and activate neural circuits for interrogating brain function.  She has received the Award "Coups d'élan pour la recherche française" from the Bettencourt-Shueller foundation in 2015, the Axa Chair in 2017, the ERC advanced Grant in 2021, the "Médaille d'argent" from CNRS and the Maxime Dahan Prize in 2021. She received the Michael S. Feld Biophotonics Award in 2022. (Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.optica.org/History/Biographies/bios/Valentina_Emiliani</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">The genetic targeting of neuronal cells with activity reporters, such as calcium or voltage indicators, has driven a paradigmatic shift in neuroscience, where photons have replaced electrons in reading large-scale brain activities at cellular resolution. Simultaneously, optogenetics has shown that targeting neuronal cells with photosensitive microbial opsins enables the transduction of photons into electrical currents of opposing polarities. This allows for the activation or inhibition of neuronal signals in a minimally invasive manner. These advances have, in turn, spurred the development of sophisticated wavefront-shaping techniques to enable "all-optical" interrogation of deep brain circuits with high spatial and temporal resolution across large volumes. In this presentation, we will discuss the most recent approaches that we have recently proposed to enhance the capacity for patterned all-optical circuit manipulation. These approaches enable efficient in vivo two-photon multitarget optogenetic photostimulation and voltage imaging in both head-fixed and freely moving mice. As an example of patterned optogenetics, we will present a recent experiment demonstrating high-throughput connectivity mapping in the mouse visual cortex.</t>
@@ -570,7 +597,7 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,7 +683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="432.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="517.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -669,7 +696,7 @@
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1005,18 +1032,20 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://complexsystemsupenn.com/"/>
     <hyperlink ref="E3" r:id="rId2" display="https://neurocenter-unige.ch/research-groups/alexandre-pouget/"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://profiles.ucl.ac.uk/31489"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en"/>
-    <hyperlink ref="E8" r:id="rId6" display="https://anneurai.net/"/>
-    <hyperlink ref="E9" r:id="rId7" display="https://www.sainsburywellcome.org/web/groups/akrami-lab"/>
-    <hyperlink ref="E10" r:id="rId8" display="https://florentmeyniel.weebly.com/"/>
-    <hyperlink ref="E11" r:id="rId9" display="https://neuroelectronics.ucsd.edu/"/>
-    <hyperlink ref="E12" r:id="rId10" display="https://patonlab.org/"/>
-    <hyperlink ref="E13" r:id="rId11" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
-    <hyperlink ref="E14" r:id="rId12" display="https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie"/>
-    <hyperlink ref="E17" r:id="rId13" display="https://profiles.mountsinai.org/rita-goldstein"/>
-    <hyperlink ref="E18" r:id="rId14" display="https://ins-amu.fr/danieleschon"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://www.institut-vision.org/en/research/wavefront-engineering-microscopy"/>
+    <hyperlink ref="F4" r:id="rId4" display="https://www.optica.org/History/Biographies/bios/Valentina_Emiliani"/>
+    <hyperlink ref="E5" r:id="rId5" display="https://profiles.ucl.ac.uk/31489"/>
+    <hyperlink ref="E6" r:id="rId6" display="https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en"/>
+    <hyperlink ref="E7" r:id="rId7" display="https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en"/>
+    <hyperlink ref="E8" r:id="rId8" display="https://anneurai.net/"/>
+    <hyperlink ref="E9" r:id="rId9" display="https://www.sainsburywellcome.org/web/groups/akrami-lab"/>
+    <hyperlink ref="E10" r:id="rId10" display="https://florentmeyniel.weebly.com/"/>
+    <hyperlink ref="E11" r:id="rId11" display="https://neuroelectronics.ucsd.edu/"/>
+    <hyperlink ref="E12" r:id="rId12" display="https://patonlab.org/"/>
+    <hyperlink ref="E13" r:id="rId13" display="https://scholar.google.com/citations?user=oHHFZY4AAAAJ&amp;hl=en"/>
+    <hyperlink ref="E14" r:id="rId14" display="https://www.crick.ac.uk/research/find-a-researcher/marcelo-moglie"/>
+    <hyperlink ref="E17" r:id="rId15" display="https://profiles.mountsinai.org/rita-goldstein"/>
+    <hyperlink ref="E18" r:id="rId16" display="https://ins-amu.fr/danieleschon"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -100,34 +100,7 @@
     <t xml:space="preserve">https://www.institut-vision.org/en/research/wavefront-engineering-microscopy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Valentina Emiliani is a CNRS research director at the Vision Institute in Paris. After a PhD in physics at La Sapienza University (Rome) and a postdoctoral fellowship at the Max Born Institute (Berlin) and at the European Laboratory for Nonlinear Spectroscopy (Florence) she joined in 2002 the Institute Jacques Monod (Paris). In 2005 she received the European Young Investigator grant and formed the Wavefront Engineering Microscopy group at Paris Descartes University. In 2019, she moved with her team to the Vision Institute, where she also directs the Photonics Department.  Valentina and her group have pioneered the use of wave-front engineering for neuroscience. Precisely, they have combined approaches such as computer-generated holography, generalized phase contrast and temporal focusing with optogenetics to control neuronal activity with unprecedent spatiotemporal precision. Their findings paved the way to optogenetic manipulation of intact brain circuits with single cell resolution: an essential methodology to perturb and activate neural circuits for interrogating brain function.  She has received the Award "Coups d'élan pour la recherche française" from the Bettencourt-Shueller foundation in 2015, the Axa Chair in 2017, the ERC advanced Grant in 2021, the "Médaille d'argent" from CNRS and the Maxime Dahan Prize in 2021. She received the Michael S. Feld Biophotonics Award in 2022. (Source: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.optica.org/History/Biographies/bios/Valentina_Emiliani</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">Valentina Emiliani is a CNRS research director at the Vision Institute in Paris. After a PhD in physics at La Sapienza University (Rome) and a postdoctoral fellowship at the Max Born Institute (Berlin) and at the European Laboratory for Nonlinear Spectroscopy (Florence) she joined in 2002 the Institute Jacques Monod (Paris). In 2005 she received the European Young Investigator grant and formed the Wavefront Engineering Microscopy group at Paris Descartes University. In 2019, she moved with her team to the Vision Institute, where she also directs the Photonics Department.  Valentina and her group have pioneered the use of wave-front engineering for neuroscience. Precisely, they have combined approaches such as computer-generated holography, generalized phase contrast and temporal focusing with optogenetics to control neuronal activity with unprecedent spatiotemporal precision. Their findings paved the way to optogenetic manipulation of intact brain circuits with single cell resolution: an essential methodology to perturb and activate neural circuits for interrogating brain function.  She has received the Award "Coups d'élan pour la recherche française" from the Bettencourt-Shueller foundation in 2015, the Axa Chair in 2017, the ERC advanced Grant in 2021, the "Médaille d'argent" from CNRS and the Maxime Dahan Prize in 2021. She received the Michael S. Feld Biophotonics Award in 2022. (Source: https://www.optica.org/History/Biographies/bios/Valentina_Emiliani)</t>
   </si>
   <si>
     <t xml:space="preserve">The genetic targeting of neuronal cells with activity reporters, such as calcium or voltage indicators, has driven a paradigmatic shift in neuroscience, where photons have replaced electrons in reading large-scale brain activities at cellular resolution. Simultaneously, optogenetics has shown that targeting neuronal cells with photosensitive microbial opsins enables the transduction of photons into electrical currents of opposing polarities. This allows for the activation or inhibition of neuronal signals in a minimally invasive manner. These advances have, in turn, spurred the development of sophisticated wavefront-shaping techniques to enable "all-optical" interrogation of deep brain circuits with high spatial and temporal resolution across large volumes. In this presentation, we will discuss the most recent approaches that we have recently proposed to enhance the capacity for patterned all-optical circuit manipulation. These approaches enable efficient in vivo two-photon multitarget optogenetic photostimulation and voltage imaging in both head-fixed and freely moving mice. As an example of patterned optogenetics, we will present a recent experiment demonstrating high-throughput connectivity mapping in the mouse visual cortex.</t>
@@ -287,7 +260,7 @@
     <t xml:space="preserve">The brain, broadly speaking, is for control. 600 million years of evolution has endowed nervous systems with a multitude of mechanisms for achieving that control. In vertebrates, mechanisms in the spinal cord and hindbrain are responsible for more automatized forms of control: reflex circuits, central pattern generators, and circuits for movement primitives. These processes can be selected amongst, modulated, and chained together by the descending influence of brain systems positioned more rostrally that possess a rich capacity to learn from experience. It is these more adaptive systems that my laboratory is most interested in understanding. And yet, control by these systems appears to be fundamentally both heterarchical, requiring distinct computations performed by specific brain systems, and hierarchical, with each system operating at varying degrees of abstraction in relation to the immediate physical world. In this talk, I will describe how experiments in my laboratory focused on understanding how neural circuits are provided a temporal basis computation have revealed not only fundamental principles underlying temporal processing, but also signatures of how hierarchies of representations can interact to produce robust policies for behavior, and how distinct aspects of behavioral control appear to be handled by different brain systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">session_YoungResearcher1.html</t>
+    <t xml:space="preserve">session_Andrea.html</t>
   </si>
   <si>
     <t xml:space="preserve">Andrea Luppi</t>
@@ -305,7 +278,7 @@
     <t xml:space="preserve">Post-doctoral researcher in computational and network neuroscience at the University of Oxford and St John's College, Cambridge. Through the lens of complex systems, I investigate how the interactions of brain function and structure enable information processing, exploring the intersection of neuroscience and AI. Background in philosophy, cognitive science and neuroscience; expertise in data analysis, network modelling and neuroimaging research methods; passionate about making higher education more accessible, with experience of undergraduate and graduate teaching.</t>
   </si>
   <si>
-    <t xml:space="preserve">session_YoungResearcher2.html</t>
+    <t xml:space="preserve">session_Marcelo.html</t>
   </si>
   <si>
     <t xml:space="preserve">Marcelo J. Moglie</t>
@@ -326,7 +299,7 @@
     <t xml:space="preserve">Extraction of relevant stimulus features from the dynamic sensory scene needs to be coupled to the execution of appropriate adaptive responses to ensure survival. A predator needs to evaluate its position with respect to that of moving prey, define an approach strategy and carry out the proper motor commands to execute it. The most efficient strategy will require an estimation of the future position of the target and should account for the predator’s sensorimotor processing delays to make a predictive interception. Mice can hunt moving prey and have been established as a successful model to study visually guided pursuit and capture behaviours. We aim to recapitulate elements of naturalistic prey capture in mice using a novel behavioural paradigm. Closed-loop presentation of visual stimuli on a touchscreen guided highly reproducible pursuit behaviours. In each session, mice performed hundreds of trials during which target interception was dependent on the velocity and contrast of the target. We show mice can adapt their pursuit strategy to the demands of the task by modifying their running speed and the trajectory followed to reach the target. Our research focuses on the role of midbrain structures involved in orienting behaviours. Optogenetic silencing the superior colliculus demonstrated the integration of spatiotemporal features of moving sensory stimuli and links it to the execution of motor commands that guide the pursuit strategy. </t>
   </si>
   <si>
-    <t xml:space="preserve">session_YoungResearcher3.html</t>
+    <t xml:space="preserve">session_Garance.html</t>
   </si>
   <si>
     <t xml:space="preserve">Garance Meyer</t>
@@ -596,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -699,7 +672,7 @@
       <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1033,7 +1006,7 @@
     <hyperlink ref="E2" r:id="rId1" display="https://complexsystemsupenn.com/"/>
     <hyperlink ref="E3" r:id="rId2" display="https://neurocenter-unige.ch/research-groups/alexandre-pouget/"/>
     <hyperlink ref="E4" r:id="rId3" display="https://www.institut-vision.org/en/research/wavefront-engineering-microscopy"/>
-    <hyperlink ref="F4" r:id="rId4" display="https://www.optica.org/History/Biographies/bios/Valentina_Emiliani"/>
+    <hyperlink ref="F4" r:id="rId4" display="Valentina Emiliani is a CNRS research director at the Vision Institute in Paris. After a PhD in physics at La Sapienza University (Rome) and a postdoctoral fellowship at the Max Born Institute (Berlin) and at the European Laboratory for Nonlinear Spectroscopy (Florence) she joined in 2002 the Institute Jacques Monod (Paris). In 2005 she received the European Young Investigator grant and formed the Wavefront Engineering Microscopy group at Paris Descartes University. In 2019, she moved with her team to the Vision Institute, where she also directs the Photonics Department.  Valentina and her group have pioneered the use of wave-front engineering for neuroscience. Precisely, they have combined approaches such as computer-generated holography, generalized phase contrast and temporal focusing with optogenetics to control neuronal activity with unprecedent spatiotemporal precision. Their findings paved the way to optogenetic manipulation of intact brain circuits with single cell resolution: an essential methodology to perturb and activate neural circuits for interrogating brain function.  She has received the Award &quot;Coups d'élan pour la recherche française&quot; from the Bettencourt-Shueller foundation in 2015, the Axa Chair in 2017, the ERC advanced Grant in 2021, the &quot;Médaille d'argent&quot; from CNRS and the Maxime Dahan Prize in 2021. She received the Michael S. Feld Biophotonics Award in 2022. (Source: https://www.optica.org/History/Biographies/bios/Valentina_Emiliani)"/>
     <hyperlink ref="E5" r:id="rId5" display="https://profiles.ucl.ac.uk/31489"/>
     <hyperlink ref="E6" r:id="rId6" display="https://scholar.google.fr/citations?user=mJ2w6kIAAAAJ&amp;hl=en"/>
     <hyperlink ref="E7" r:id="rId7" display="https://scholar.google.com/citations?user=O825l5YAAAAJ&amp;hl=en"/>

--- a/assets/data/speakers.xlsx
+++ b/assets/data/speakers.xlsx
@@ -569,8 +569,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
